--- a/范例/宝具范例v0.5.0.220814.xlsx
+++ b/范例/宝具范例v0.5.0.220814.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxlyl\OneDrive\文档\Others\TRPG\规则书与设定集与人物卡\Fate Atrous Grail\v0.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/范例/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23EC79-D311-4725-9CD4-09E5A3D69A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8A23EC79-D311-4725-9CD4-09E5A3D69A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B81A1B33-C971-40A2-AA71-E6C75AB902A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,6 +705,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -723,58 +769,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1081,28 +1081,28 @@
     </row>
     <row r="3" spans="2:9" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1115,11 +1115,11 @@
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1135,11 +1135,11 @@
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1155,9 +1155,9 @@
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1190,21 +1190,21 @@
       <c r="H9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1219,14 +1219,14 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="16" t="s">
         <v>1</v>
       </c>
@@ -1239,14 +1239,14 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1261,14 +1261,14 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="16" t="s">
         <v>1</v>
       </c>
@@ -1281,12 +1281,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1297,12 +1297,12 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="18" t="s">
         <v>1</v>
       </c>
@@ -1316,8 +1316,8 @@
       <c r="B16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="15" t="s">
         <v>13</v>
       </c>
@@ -1337,68 +1337,68 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -1407,28 +1407,28 @@
     </row>
     <row r="25" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="9" t="s">
         <v>0</v>
       </c>
@@ -1441,11 +1441,11 @@
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="4" t="s">
         <v>1</v>
       </c>
@@ -1461,11 +1461,11 @@
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1481,9 +1481,9 @@
       <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1516,21 +1516,21 @@
       <c r="H31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="13" t="s">
         <v>7</v>
       </c>
@@ -1545,14 +1545,14 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="16" t="s">
         <v>1</v>
       </c>
@@ -1565,14 +1565,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="7" t="s">
         <v>7</v>
       </c>
@@ -1587,14 +1587,14 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="16" t="s">
         <v>1</v>
       </c>
@@ -1607,14 +1607,14 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="7" t="s">
         <v>7</v>
       </c>
@@ -1629,14 +1629,14 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="18" t="s">
         <v>1</v>
       </c>
@@ -1652,8 +1652,8 @@
       <c r="B38" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="15" t="s">
         <v>13</v>
       </c>
@@ -1673,68 +1673,68 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
     </row>
     <row r="40" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1763,18 +1763,8 @@
     <row r="73" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="C39:I44"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="B39:B44"/>
@@ -1791,8 +1781,18 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="C17:I22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1805,7 +1805,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
